--- a/otmm_decimal/result_colab/result_novelty_5195_1.0_6_159_ColabPP/a_a_5195_1.0_6_6.xlsx
+++ b/otmm_decimal/result_colab/result_novelty_5195_1.0_6_159_ColabPP/a_a_5195_1.0_6_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_novelty_5195_1.0_6_159_ColabPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C910F88D-F91D-41F2-BE0D-DB464D18F7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAD78F-41EE-4C6B-ACC2-5CCC3443D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a_a_5195_1.0_6_6" sheetId="1" r:id="rId1"/>
@@ -991,7 +991,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1155,7 +1155,7 @@
         <f t="shared" si="0"/>
         <v>8.3908176254581925E-12</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.1002970097418622</v>
       </c>
@@ -1184,7 +1184,7 @@
         <f t="shared" si="1"/>
         <v>1.0165624656531946E-5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>0.13313783226065529</v>
       </c>
